--- a/exp/results/exp3_url_ann_plbf.xlsx
+++ b/exp/results/exp3_url_ann_plbf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\LBF-STK\exp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211DFEB4-7DF7-4CFA-8079-B24D0EFC2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B2897-2B27-4352-9AD2-95386421B43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,68 +22,68 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>0.026894236280897956</t>
-  </si>
-  <si>
-    <t>0.025279880210100254</t>
-  </si>
-  <si>
-    <t>0.025045915562158558</t>
-  </si>
-  <si>
-    <t>0.024180246364774283</t>
-  </si>
-  <si>
-    <t>0.0237825064632734</t>
-  </si>
-  <si>
-    <t>0.02639121228782331</t>
-  </si>
-  <si>
-    <t>0.024577986266275165</t>
-  </si>
-  <si>
-    <t>0.02598177415392534</t>
-  </si>
-  <si>
-    <t>0.025408560766468188</t>
-  </si>
-  <si>
-    <t>0.025899886527145748</t>
-  </si>
-  <si>
-    <t>0.02490553677339354</t>
-  </si>
-  <si>
-    <t>0.023747411766082145</t>
-  </si>
-  <si>
-    <t>0.02751424259794345</t>
-  </si>
-  <si>
-    <t>0.025209690815717747</t>
-  </si>
-  <si>
-    <t>0.026449703449808733</t>
+    <t>0.02429722868874513</t>
+  </si>
+  <si>
+    <t>0.02395797994922967</t>
+  </si>
+  <si>
+    <t>0.026402910520220396</t>
+  </si>
+  <si>
+    <t>0.024671572125451843</t>
+  </si>
+  <si>
+    <t>0.024847045611408117</t>
+  </si>
+  <si>
+    <t>0.025934981224337003</t>
   </si>
   <si>
     <t>0.026087058245499103</t>
   </si>
   <si>
-    <t>0.027748207245885146</t>
-  </si>
-  <si>
-    <t>0.027093106231648397</t>
-  </si>
-  <si>
-    <t>0.026800650421721278</t>
+    <t>0.025478750160850695</t>
+  </si>
+  <si>
+    <t>0.026590082238573752</t>
+  </si>
+  <si>
+    <t>0.026578384006176667</t>
+  </si>
+  <si>
+    <t>0.026040265315910766</t>
+  </si>
+  <si>
+    <t>0.0261689458722787</t>
+  </si>
+  <si>
+    <t>0.025958377689131173</t>
+  </si>
+  <si>
+    <t>0.024987424400173135</t>
+  </si>
+  <si>
+    <t>0.026554987541382497</t>
+  </si>
+  <si>
+    <t>0.026695366330147515</t>
+  </si>
+  <si>
+    <t>0.02654328930898541</t>
+  </si>
+  <si>
+    <t>0.027081407999251312</t>
+  </si>
+  <si>
+    <t>0.027631224921914298</t>
   </si>
   <si>
     <t>Our</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.024285530456348</t>
+    <t>0.0248002526818197</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
